--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/57_Mardin_2024.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/57_Mardin_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2DB6A5F-1CBC-4BD4-A8AC-1B9E2D8160EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{99F158DC-2397-434E-BF3B-758249500E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="677" xr2:uid="{A2852399-13B6-4E3F-9B1F-49A1F44ADDF5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="677" xr2:uid="{7FBB7A22-F642-4263-9AF8-D6E3FAC1F840}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="135" r:id="rId1"/>
@@ -905,14 +905,14 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{E9FCD447-14F9-4F3A-9928-1BEDCD0EF883}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{43C67465-3811-427E-B2B7-D549257DCC0A}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{E18F3CFD-5B0A-4CA4-B09A-4ABAA958A420}"/>
-    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{FBF155F1-01A5-4ACB-B8E0-9E604489E7B7}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{A51F154E-3634-4D9E-BEC0-F3BB39010594}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{1D61AD4E-CA37-44BC-8EC8-09AD4D197E7B}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{B2C37F12-1347-40D9-B467-A3CFB7310951}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{0AF563E3-00E0-4CFE-AAFB-24862F5036AD}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{95A31CB3-9C91-4E7E-8C17-6D2236C78894}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{C463C20D-32E7-4403-9A97-3AF27C6EAA1C}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{F6AF442C-CEDE-4CD4-89A0-612E7FFE1C62}"/>
+    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{265C12C5-B4CD-4806-A45A-FC241882AF5D}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{A2DA9FE7-8037-4B2F-A7A1-C71D2F240F07}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{90F50925-0F1D-4569-9132-C5BD382EAFD4}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{28D91784-98E5-438C-A5C3-3F0DA9EDA462}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{16AC26DD-69CC-45B2-96D4-2A8DC212891E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1282,7 +1282,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B7E951-0B6D-4E89-84E7-C1AE40E80449}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33325CFE-9132-4978-ACF1-BB887F00CDBD}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2583,7 +2583,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DF1CD9-2A5C-4D62-A95A-017846CF9E3D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACD6D036-57C6-4FB7-8B13-F1B2776AECA2}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3878,7 +3878,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED3C917-B9B0-4377-ABB8-C700E7DEDD89}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{925B53BF-9D6E-4059-9FE2-8F303A29F4FC}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -5171,7 +5171,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A42815E6-292D-4D1F-97BF-6668D862A328}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99A5D2A3-1E9C-476C-A5C8-84CBA4D2ECB9}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6458,7 +6458,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB17C489-B03C-4308-A47E-A3313191E283}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C20DC03-89B5-484D-AF30-E7032440EF0F}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7759,7 +7759,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC6CED77-1A63-4737-8DE4-041525CDDA7C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B678DACD-0322-4AEA-8FA4-B40DBDC2A7AA}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9062,7 +9062,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F740950-7307-4BF1-815F-27F35BDE4DA5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBDE088B-8858-4807-B306-32CA3C85352B}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -10363,7 +10363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2915C872-E74D-43AB-B8A7-07819F7BF6D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDB7B6D2-7AA1-40B1-9C18-A90BE070A170}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11666,7 +11666,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{682D38B8-3B4D-4906-A1B1-C985E80E0EAF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02172817-67A8-46C8-B9F1-B3043107CE1A}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12967,7 +12967,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E5417D3-955C-4B22-918F-4788671A6C15}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23A39445-6E4E-4EF8-BEEB-6846DA607064}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14266,7 +14266,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE6545A7-8BA2-4B92-B7BD-EF70CF499773}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E33C094-3BF8-4790-A572-EDA9135F21BC}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15563,7 +15563,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF3EDDC6-583A-4A33-A60D-D6CF7044C2C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A64A4034-DD01-4034-BF03-3FE0BA4AB1E9}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
